--- a/resultados/tcc_results/resultados_fixos/resultados_500k/500k.xlsx
+++ b/resultados/tcc_results/resultados_fixos/resultados_500k/500k.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\Desktop\tcc_results\resultados_500k\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\OneDrive\Documentos\GitHub\TCC-App\resultados\tcc_results\resultados_fixos\resultados_500k\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0CBF21-F0ED-45F4-81D9-7E4DFDDFE40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42124FDA-9A8E-42F3-9F5C-241D96A99A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdateTests" sheetId="9" r:id="rId1"/>
@@ -281,6 +281,9 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CFCBB07D-49F9-4090-B287-3CA5FF8904D6}" name="CreateTests" displayName="CreateTests" ref="A1:F21" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:F21" xr:uid="{CFCBB07D-49F9-4090-B287-3CA5FF8904D6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F21">
+    <sortCondition ref="B1:B21"/>
+  </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{7E0103B8-42BD-49FC-97E1-779E8DE2493E}" name="E1" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{220E9C36-FACA-435D-8D4C-3E1162CE9D36}" name="E2" dataDxfId="4"/>
@@ -3400,8 +3403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF95375A-F854-44F8-9A70-B0C9716BEE94}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:F49"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3431,402 +3434,402 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1.1514500000000001</v>
+        <v>1.0575300000000001</v>
       </c>
       <c r="B2">
-        <v>1.1371</v>
+        <v>1.0578799999999999</v>
       </c>
       <c r="C2">
-        <v>2.15815</v>
+        <v>2.1293000000000002</v>
       </c>
       <c r="D2">
-        <v>2.1532499999999999</v>
+        <v>2.1290900000000001</v>
       </c>
       <c r="E2">
-        <v>1.03392</v>
+        <v>1.0298400000000001</v>
       </c>
       <c r="F2">
-        <v>2.0751900000000001</v>
+        <v>2.06941</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.09405</v>
+        <v>1.0672600000000001</v>
       </c>
       <c r="B3">
-        <v>1.08738</v>
+        <v>1.0616699999999999</v>
       </c>
       <c r="C3">
-        <v>2.1494</v>
+        <v>2.10473</v>
       </c>
       <c r="D3">
-        <v>2.1634500000000001</v>
+        <v>2.13544</v>
       </c>
       <c r="E3">
-        <v>1.1109599999999999</v>
+        <v>1.0343800000000001</v>
       </c>
       <c r="F3">
-        <v>2.22756</v>
+        <v>2.1248999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1.0584899999999999</v>
+        <v>1.0623100000000001</v>
       </c>
       <c r="B4">
-        <v>1.07023</v>
+        <v>1.0657300000000001</v>
       </c>
       <c r="C4">
-        <v>2.1186799999999999</v>
+        <v>2.1328200000000002</v>
       </c>
       <c r="D4">
-        <v>2.18363</v>
+        <v>2.1366499999999999</v>
       </c>
       <c r="E4">
-        <v>1.05542</v>
+        <v>1.03009</v>
       </c>
       <c r="F4">
-        <v>2.1097000000000001</v>
+        <v>2.0845600000000002</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1.0575300000000001</v>
+        <v>1.05813</v>
       </c>
       <c r="B5">
-        <v>1.0578799999999999</v>
+        <v>1.0694900000000001</v>
       </c>
       <c r="C5">
-        <v>2.1293000000000002</v>
+        <v>2.13794</v>
       </c>
       <c r="D5">
-        <v>2.1290900000000001</v>
+        <v>2.1252499999999999</v>
       </c>
       <c r="E5">
-        <v>1.0298400000000001</v>
+        <v>1.02549</v>
       </c>
       <c r="F5">
-        <v>2.06941</v>
+        <v>2.0771799999999998</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1.0671900000000001</v>
+        <v>1.0584899999999999</v>
       </c>
       <c r="B6">
-        <v>1.07317</v>
+        <v>1.07023</v>
       </c>
       <c r="C6">
-        <v>2.1717499999999998</v>
+        <v>2.1186799999999999</v>
       </c>
       <c r="D6">
-        <v>2.1678899999999999</v>
+        <v>2.18363</v>
       </c>
       <c r="E6">
-        <v>1.0464899999999999</v>
+        <v>1.05542</v>
       </c>
       <c r="F6">
-        <v>2.0662600000000002</v>
+        <v>2.1097000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1.0623100000000001</v>
+        <v>1.0658300000000001</v>
       </c>
       <c r="B7">
-        <v>1.0657300000000001</v>
+        <v>1.0721799999999999</v>
       </c>
       <c r="C7">
-        <v>2.1328200000000002</v>
+        <v>2.1309900000000002</v>
       </c>
       <c r="D7">
-        <v>2.1366499999999999</v>
+        <v>2.10588</v>
       </c>
       <c r="E7">
-        <v>1.03009</v>
+        <v>1.0234099999999999</v>
       </c>
       <c r="F7">
-        <v>2.0845600000000002</v>
+        <v>2.1909100000000001</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1.05813</v>
+        <v>1.0671900000000001</v>
       </c>
       <c r="B8">
-        <v>1.0694900000000001</v>
+        <v>1.07317</v>
       </c>
       <c r="C8">
-        <v>2.13794</v>
+        <v>2.1717499999999998</v>
       </c>
       <c r="D8">
-        <v>2.1252499999999999</v>
+        <v>2.1678899999999999</v>
       </c>
       <c r="E8">
-        <v>1.02549</v>
+        <v>1.0464899999999999</v>
       </c>
       <c r="F8">
-        <v>2.0771799999999998</v>
+        <v>2.0662600000000002</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1.0642100000000001</v>
+        <v>1.0583199999999999</v>
       </c>
       <c r="B9">
-        <v>1.07507</v>
+        <v>1.0733699999999999</v>
       </c>
       <c r="C9">
-        <v>2.1246999999999998</v>
+        <v>2.1474799999999998</v>
       </c>
       <c r="D9">
-        <v>2.1286499999999999</v>
+        <v>2.1262699999999999</v>
       </c>
       <c r="E9">
-        <v>1.0404899999999999</v>
+        <v>1.0283100000000001</v>
       </c>
       <c r="F9">
-        <v>2.0819800000000002</v>
+        <v>2.0665800000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1.0583199999999999</v>
+        <v>1.0642100000000001</v>
       </c>
       <c r="B10">
-        <v>1.0733699999999999</v>
+        <v>1.07507</v>
       </c>
       <c r="C10">
-        <v>2.1474799999999998</v>
+        <v>2.1246999999999998</v>
       </c>
       <c r="D10">
-        <v>2.1262699999999999</v>
+        <v>2.1286499999999999</v>
       </c>
       <c r="E10">
-        <v>1.0283100000000001</v>
+        <v>1.0404899999999999</v>
       </c>
       <c r="F10">
-        <v>2.0665800000000001</v>
+        <v>2.0819800000000002</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1.1551</v>
+        <v>1.1607799999999999</v>
       </c>
       <c r="B11">
-        <v>1.1452199999999999</v>
+        <v>1.07521</v>
       </c>
       <c r="C11">
-        <v>2.1358100000000002</v>
+        <v>2.1224799999999999</v>
       </c>
       <c r="D11">
-        <v>2.12473</v>
+        <v>2.1249799999999999</v>
       </c>
       <c r="E11">
-        <v>1.02782</v>
+        <v>1.0327599999999999</v>
       </c>
       <c r="F11">
-        <v>2.07633</v>
+        <v>2.28409</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1.14666</v>
+        <v>1.07731</v>
       </c>
       <c r="B12">
-        <v>1.1707799999999999</v>
+        <v>1.08338</v>
       </c>
       <c r="C12">
-        <v>2.2631100000000002</v>
+        <v>2.12934</v>
       </c>
       <c r="D12">
-        <v>2.2098900000000001</v>
+        <v>2.1396999999999999</v>
       </c>
       <c r="E12">
-        <v>1.07782</v>
+        <v>1.04725</v>
       </c>
       <c r="F12">
-        <v>2.37262</v>
+        <v>2.1082200000000002</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1.07731</v>
+        <v>1.07748</v>
       </c>
       <c r="B13">
-        <v>1.08338</v>
+        <v>1.08406</v>
       </c>
       <c r="C13">
-        <v>2.12934</v>
+        <v>2.13775</v>
       </c>
       <c r="D13">
-        <v>2.1396999999999999</v>
+        <v>2.14405</v>
       </c>
       <c r="E13">
-        <v>1.04725</v>
+        <v>1.0407500000000001</v>
       </c>
       <c r="F13">
-        <v>2.1082200000000002</v>
+        <v>2.1770999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1.16974</v>
+        <v>1.09405</v>
       </c>
       <c r="B14">
-        <v>1.1360300000000001</v>
+        <v>1.08738</v>
       </c>
       <c r="C14">
-        <v>2.22749</v>
+        <v>2.1494</v>
       </c>
       <c r="D14">
-        <v>2.12906</v>
+        <v>2.1634500000000001</v>
       </c>
       <c r="E14">
-        <v>1.0441</v>
+        <v>1.1109599999999999</v>
       </c>
       <c r="F14">
-        <v>2.0889099999999998</v>
+        <v>2.22756</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1.07748</v>
+        <v>1.08849</v>
       </c>
       <c r="B15">
-        <v>1.08406</v>
+        <v>1.08796</v>
       </c>
       <c r="C15">
-        <v>2.13775</v>
+        <v>2.15924</v>
       </c>
       <c r="D15">
-        <v>2.14405</v>
+        <v>2.1411799999999999</v>
       </c>
       <c r="E15">
-        <v>1.0407500000000001</v>
+        <v>1.04783</v>
       </c>
       <c r="F15">
-        <v>2.1770999999999998</v>
+        <v>2.1030799999999998</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1.08849</v>
+        <v>1.1064700000000001</v>
       </c>
       <c r="B16">
-        <v>1.08796</v>
+        <v>1.0962000000000001</v>
       </c>
       <c r="C16">
-        <v>2.15924</v>
+        <v>2.1211600000000002</v>
       </c>
       <c r="D16">
-        <v>2.1411799999999999</v>
+        <v>2.1159699999999999</v>
       </c>
       <c r="E16">
-        <v>1.04783</v>
+        <v>1.0282199999999999</v>
       </c>
       <c r="F16">
-        <v>2.1030799999999998</v>
+        <v>2.0753400000000002</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1.11738</v>
+        <v>1.16974</v>
       </c>
       <c r="B17">
-        <v>1.14408</v>
+        <v>1.1360300000000001</v>
       </c>
       <c r="C17">
-        <v>2.1992500000000001</v>
+        <v>2.22749</v>
       </c>
       <c r="D17">
-        <v>2.1325599999999998</v>
+        <v>2.12906</v>
       </c>
       <c r="E17">
-        <v>1.0438099999999999</v>
+        <v>1.0441</v>
       </c>
       <c r="F17">
-        <v>2.1061800000000002</v>
+        <v>2.0889099999999998</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1.1607799999999999</v>
+        <v>1.1514500000000001</v>
       </c>
       <c r="B18">
-        <v>1.07521</v>
+        <v>1.1371</v>
       </c>
       <c r="C18">
-        <v>2.1224799999999999</v>
+        <v>2.15815</v>
       </c>
       <c r="D18">
-        <v>2.1249799999999999</v>
+        <v>2.1532499999999999</v>
       </c>
       <c r="E18">
-        <v>1.0327599999999999</v>
+        <v>1.03392</v>
       </c>
       <c r="F18">
-        <v>2.28409</v>
+        <v>2.0751900000000001</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1.0672600000000001</v>
+        <v>1.11738</v>
       </c>
       <c r="B19">
-        <v>1.0616699999999999</v>
+        <v>1.14408</v>
       </c>
       <c r="C19">
-        <v>2.10473</v>
+        <v>2.1992500000000001</v>
       </c>
       <c r="D19">
-        <v>2.13544</v>
+        <v>2.1325599999999998</v>
       </c>
       <c r="E19">
-        <v>1.0343800000000001</v>
+        <v>1.0438099999999999</v>
       </c>
       <c r="F19">
-        <v>2.1248999999999998</v>
+        <v>2.1061800000000002</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1.1064700000000001</v>
+        <v>1.1551</v>
       </c>
       <c r="B20">
-        <v>1.0962000000000001</v>
+        <v>1.1452199999999999</v>
       </c>
       <c r="C20">
-        <v>2.1211600000000002</v>
+        <v>2.1358100000000002</v>
       </c>
       <c r="D20">
-        <v>2.1159699999999999</v>
+        <v>2.12473</v>
       </c>
       <c r="E20">
-        <v>1.0282199999999999</v>
+        <v>1.02782</v>
       </c>
       <c r="F20">
-        <v>2.0753400000000002</v>
+        <v>2.07633</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1.0658300000000001</v>
+        <v>1.14666</v>
       </c>
       <c r="B21">
-        <v>1.0721799999999999</v>
+        <v>1.1707799999999999</v>
       </c>
       <c r="C21">
-        <v>2.1309900000000002</v>
+        <v>2.2631100000000002</v>
       </c>
       <c r="D21">
-        <v>2.10588</v>
+        <v>2.2098900000000001</v>
       </c>
       <c r="E21">
-        <v>1.0234099999999999</v>
+        <v>1.07782</v>
       </c>
       <c r="F21">
-        <v>2.1909100000000001</v>
+        <v>2.37262</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
